--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -78,6 +78,15 @@
   <si>
     <t>Initially hand writing ideas for quicker thought process. May need to take photos for assessment?</t>
   </si>
+  <si>
+    <t>Need to write thoughts down more, so that I can order my thinking more.</t>
+  </si>
+  <si>
+    <t>Considering using Evernote or similar for a logbook so that I can include pictures of notes and links/bookmarks, etc. - would also make reading on mobile easier than spreadsheet</t>
+  </si>
+  <si>
+    <t>Reading of M258 module materials, fleshing out of planner and thinking of initial structure for TMA. Setting up planner for recording risks and issues - can be used to track bugs, as well as requirements and RFCs. Posted on BGG, asking for advice on similar software. Reading on RAID concepts</t>
+  </si>
 </sst>
 </file>
 
@@ -86,9 +95,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\-d;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="3" tint="9.985656300546282E-2"/>
@@ -157,6 +166,12 @@
       <name val="Bookman Old Style"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3" tint="9.985656300546282E-2"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -241,7 +256,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -261,14 +276,17 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -347,7 +365,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     </dxf>
     <dxf>
       <font>
@@ -388,8 +406,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B3:H5" totalsRowShown="0">
-  <autoFilter ref="B3:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="B3:H6" totalsRowShown="0">
+  <autoFilter ref="B3:H6"/>
   <sortState ref="B4:F9">
     <sortCondition ref="B3:B9"/>
   </sortState>
@@ -397,10 +415,10 @@
     <tableColumn id="1" name="DATE" dataDxfId="5" dataCellStyle="Date Column"/>
     <tableColumn id="2" name="TIME" dataCellStyle="Time Column"/>
     <tableColumn id="3" name="Log #" dataDxfId="4" dataCellStyle="Event Column"/>
-    <tableColumn id="5" name="Hours spent" dataDxfId="0" dataCellStyle="Event Column"/>
-    <tableColumn id="4" name="WORK" dataDxfId="3" dataCellStyle="Event Column"/>
-    <tableColumn id="6" name="Problems" dataDxfId="2" dataCellStyle="Event Column"/>
-    <tableColumn id="7" name="Comments" dataDxfId="1" dataCellStyle="Event Column"/>
+    <tableColumn id="5" name="Hours spent" dataDxfId="3" dataCellStyle="Event Column"/>
+    <tableColumn id="4" name="WORK" dataDxfId="2" dataCellStyle="Event Column"/>
+    <tableColumn id="6" name="Problems" dataDxfId="1" dataCellStyle="Event Column"/>
+    <tableColumn id="7" name="Comments" dataDxfId="0" dataCellStyle="Event Column"/>
   </tableColumns>
   <tableStyleInfo name="DayBook" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -642,13 +660,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H5"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
@@ -660,7 +678,7 @@
     <col min="9" max="9" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
@@ -673,8 +691,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -739,6 +756,29 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>42419</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
